--- a/ValueSet-uscore-medicationstatement-status.xlsx
+++ b/ValueSet-uscore-medicationstatement-status.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://www.fhir.org/guides/uscdi4-sandbox/ValueSet/uscore-medicationstatement-status</t>
+    <t>http://www.fhir.org/guides/testing-sandbox/ValueSet/uscore-medicationstatement-status</t>
   </si>
   <si>
     <t>Version</t>
